--- a/data/trans_orig/Q5404-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q5404-Clase-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4343</v>
+        <v>4765</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01589114001246909</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07264708062239776</v>
+        <v>0.07970908083186025</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4573</v>
+        <v>4036</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03017691575788626</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1539307735928429</v>
+        <v>0.1358618278080932</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6385</v>
+        <v>6929</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02063353531390968</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07134991129848309</v>
+        <v>0.07742294460824814</v>
       </c>
     </row>
     <row r="5">
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4933</v>
+        <v>4719</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01580993345880353</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08251371379297563</v>
+        <v>0.07893672661764836</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5110</v>
+        <v>5051</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03019854518092787</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1719986677674109</v>
+        <v>0.1700066445351972</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6665</v>
+        <v>5687</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02058646683306887</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07447660756911192</v>
+        <v>0.06354863899650508</v>
       </c>
     </row>
     <row r="6">
@@ -886,7 +886,7 @@
         <v>57889</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>53905</v>
+        <v>53663</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>59784</v>
@@ -895,7 +895,7 @@
         <v>0.9682989265287274</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9016631676464967</v>
+        <v>0.8976191471447539</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>27915</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>23331</v>
+        <v>23402</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>29709</v>
@@ -916,7 +916,7 @@
         <v>0.9396245390611858</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7853059667411374</v>
+        <v>0.7877064887090054</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -928,19 +928,19 @@
         <v>85804</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>80986</v>
+        <v>80865</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>88557</v>
+        <v>88582</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9587799978530215</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9049417081747458</v>
+        <v>0.9035879840839184</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9895439815789787</v>
+        <v>0.9898199473494674</v>
       </c>
     </row>
     <row r="7">
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8246</v>
+        <v>8277</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03445050489423308</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.162234090642013</v>
+        <v>0.1628457793072288</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8895</v>
+        <v>7352</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02628687198892891</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1335338163798363</v>
+        <v>0.1103608737714709</v>
       </c>
     </row>
     <row r="9">
@@ -1142,7 +1142,7 @@
         <v>49079</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42584</v>
+        <v>42553</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>50830</v>
@@ -1151,7 +1151,7 @@
         <v>0.9655494951057669</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8377659093579869</v>
+        <v>0.8371542206927712</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1176,7 +1176,7 @@
         <v>64865</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>57721</v>
+        <v>59264</v>
       </c>
       <c r="T10" s="5" t="n">
         <v>66616</v>
@@ -1185,7 +1185,7 @@
         <v>0.9737131280110711</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8664661836201658</v>
+        <v>0.8896391262285261</v>
       </c>
       <c r="W10" s="6" t="n">
         <v>1</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5762</v>
+        <v>6726</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02500552177178762</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08030902500703234</v>
+        <v>0.09373151074195613</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6438</v>
+        <v>7451</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08968519409703525</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2651921117459367</v>
+        <v>0.3069294863065523</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4</v>
@@ -1322,19 +1322,19 @@
         <v>3971</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1031</v>
+        <v>1067</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>9291</v>
+        <v>9226</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04135590703283973</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0107311881058715</v>
+        <v>0.0111114770335265</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09674642058054504</v>
+        <v>0.09607712651320573</v>
       </c>
     </row>
     <row r="13">
@@ -1351,19 +1351,19 @@
         <v>4390</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1714</v>
+        <v>1697</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8955</v>
+        <v>9560</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06118448371630981</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02388823877420176</v>
+        <v>0.02364837183642163</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1247960411811559</v>
+        <v>0.1332330869169633</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5720</v>
+        <v>5723</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04808082501136848</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2356158995693772</v>
+        <v>0.2357585375883448</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -1393,19 +1393,19 @@
         <v>5557</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2499</v>
+        <v>2095</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>11591</v>
+        <v>12104</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05787200762524746</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02602522628787821</v>
+        <v>0.02181363399905711</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.120703376055353</v>
+        <v>0.1260463072633922</v>
       </c>
     </row>
     <row r="14">
@@ -1422,19 +1422,19 @@
         <v>65570</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>60210</v>
+        <v>60099</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>69096</v>
+        <v>69163</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9138099945119026</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8391149611520473</v>
+        <v>0.8375663909007637</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9629515290620515</v>
+        <v>0.963883981193237</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>21</v>
@@ -1443,19 +1443,19 @@
         <v>20931</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16549</v>
+        <v>16416</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>23226</v>
+        <v>23230</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8622339808915963</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6817139907893899</v>
+        <v>0.6762441206656876</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9567879178850962</v>
+        <v>0.9569393845714861</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>91</v>
@@ -1464,19 +1464,19 @@
         <v>86501</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>79335</v>
+        <v>79287</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>91036</v>
+        <v>91150</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9007720853419128</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8261523667731355</v>
+        <v>0.8256432094976597</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9480004995022498</v>
+        <v>0.9491815194876313</v>
       </c>
     </row>
     <row r="15">
@@ -1568,19 +1568,19 @@
         <v>3446</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>977</v>
+        <v>843</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8875</v>
+        <v>8197</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01325112516742766</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00375823262923797</v>
+        <v>0.003242703234080678</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03412346863045863</v>
+        <v>0.03151824301449294</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5181</v>
+        <v>5668</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0135372489033814</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06041862058815313</v>
+        <v>0.06609362044687642</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1610,19 +1610,19 @@
         <v>4607</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1692</v>
+        <v>1618</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10046</v>
+        <v>11113</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01332207368345449</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004891992413037428</v>
+        <v>0.004680103935479738</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02904872056680631</v>
+        <v>0.03213593473233729</v>
       </c>
     </row>
     <row r="17">
@@ -1639,19 +1639,19 @@
         <v>14354</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8938</v>
+        <v>8104</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>22793</v>
+        <v>21640</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05519092538247154</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03436667849427456</v>
+        <v>0.03116081186575857</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08764116883273607</v>
+        <v>0.08320869725448032</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1660,19 +1660,19 @@
         <v>4656</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1298</v>
+        <v>1318</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11452</v>
+        <v>11771</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05430133986964723</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01513647869103575</v>
+        <v>0.01537202611723091</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1335502839098649</v>
+        <v>0.1372676614168102</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>20</v>
@@ -1681,19 +1681,19 @@
         <v>19010</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12454</v>
+        <v>11435</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>28950</v>
+        <v>27304</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05497033979629683</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03601257372183424</v>
+        <v>0.03306572247168848</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08371258411058047</v>
+        <v>0.07895204126393576</v>
       </c>
     </row>
     <row r="18">
@@ -1710,19 +1710,19 @@
         <v>242272</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>233104</v>
+        <v>234244</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>248494</v>
+        <v>249224</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9315579494501008</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8963052299061831</v>
+        <v>0.9006904989482215</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9554826799644783</v>
+        <v>0.9582867683813256</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>83</v>
@@ -1731,19 +1731,19 @@
         <v>79935</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>73103</v>
+        <v>72640</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>83490</v>
+        <v>83480</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9321614112269714</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8524965662169979</v>
+        <v>0.8470988018910486</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.97362316152411</v>
+        <v>0.9735041867878574</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>340</v>
@@ -1752,19 +1752,19 @@
         <v>322207</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>311439</v>
+        <v>313499</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>329626</v>
+        <v>330758</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9317075865202487</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9005715144908087</v>
+        <v>0.9065290275943881</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9531615063218007</v>
+        <v>0.9564330581845398</v>
       </c>
     </row>
     <row r="19">
@@ -1856,19 +1856,19 @@
         <v>2597</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6860</v>
+        <v>6733</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04682612553875376</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01464388013884145</v>
+        <v>0.01444540875527112</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1236790534100331</v>
+        <v>0.1213983833544205</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -1877,19 +1877,19 @@
         <v>8285</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3510</v>
+        <v>3522</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15064</v>
+        <v>15833</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08607336737338479</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03646720903763349</v>
+        <v>0.03659389176736819</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1565098388507369</v>
+        <v>0.1644939455582446</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>11</v>
@@ -1898,19 +1898,19 @@
         <v>10882</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5567</v>
+        <v>5193</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>19577</v>
+        <v>18901</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07172502656278844</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03669269150659848</v>
+        <v>0.03422603125627369</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1290410381857377</v>
+        <v>0.1245834463865067</v>
       </c>
     </row>
     <row r="21">
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5179</v>
+        <v>4816</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01865136889995128</v>
@@ -1939,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0933752023890755</v>
+        <v>0.08683517498733166</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>8</v>
@@ -1948,19 +1948,19 @@
         <v>8584</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4154</v>
+        <v>4086</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>16759</v>
+        <v>16438</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08918830679749132</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04316257671672775</v>
+        <v>0.04245170103219015</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1741169013657517</v>
+        <v>0.1707819050223234</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>9</v>
@@ -1969,19 +1969,19 @@
         <v>9619</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>5017</v>
+        <v>4589</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>18354</v>
+        <v>17691</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.06340081250797598</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03306914771493681</v>
+        <v>0.03024963758704759</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1209793620660324</v>
+        <v>0.1166053577102582</v>
       </c>
     </row>
     <row r="22">
@@ -1998,19 +1998,19 @@
         <v>51833</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>46097</v>
+        <v>47273</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>54469</v>
+        <v>54446</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.934522505561295</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8310931174394197</v>
+        <v>0.8523055737536092</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9820354223843191</v>
+        <v>0.9816366728221959</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>76</v>
@@ -2019,19 +2019,19 @@
         <v>79381</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>71294</v>
+        <v>70365</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>86420</v>
+        <v>85906</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8247383258291239</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7407148047648902</v>
+        <v>0.7310606024874174</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8978657938860718</v>
+        <v>0.8925291806923574</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>131</v>
@@ -2040,19 +2040,19 @@
         <v>131214</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>121259</v>
+        <v>122081</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>138510</v>
+        <v>138920</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8648741609292355</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7992567372811663</v>
+        <v>0.8046735924086211</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.912961542809776</v>
+        <v>0.91566196545617</v>
       </c>
     </row>
     <row r="23">
@@ -2157,19 +2157,19 @@
         <v>16269</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>9361</v>
+        <v>9588</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>25508</v>
+        <v>25610</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03827361525527796</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02202261574051231</v>
+        <v>0.02255670051988153</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06000901109833224</v>
+        <v>0.06024989168157253</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>15</v>
@@ -2178,19 +2178,19 @@
         <v>16269</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>9431</v>
+        <v>9558</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>26095</v>
+        <v>26262</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03794820823291746</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02199905813959892</v>
+        <v>0.02229369331950189</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06086714240302348</v>
+        <v>0.0612571651505737</v>
       </c>
     </row>
     <row r="25">
@@ -2220,19 +2220,19 @@
         <v>18403</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11288</v>
+        <v>10827</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>28465</v>
+        <v>28373</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04329353503451117</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02655508667558937</v>
+        <v>0.02547153510737892</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06696594286518322</v>
+        <v>0.06674889156450924</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>17</v>
@@ -2241,19 +2241,19 @@
         <v>18403</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>11458</v>
+        <v>11608</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>28377</v>
+        <v>28802</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04292544803177898</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02672627562582914</v>
+        <v>0.0270771374445314</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0661901982537417</v>
+        <v>0.06718305971326763</v>
       </c>
     </row>
     <row r="26">
@@ -2283,19 +2283,19 @@
         <v>390398</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>377149</v>
+        <v>376957</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>400469</v>
+        <v>400423</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9184328497102109</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8872643207766935</v>
+        <v>0.8868117951250474</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9421241507182342</v>
+        <v>0.9420155268480552</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>384</v>
@@ -2304,19 +2304,19 @@
         <v>394043</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>380815</v>
+        <v>381237</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>404652</v>
+        <v>404677</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9191263437353036</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8882716716751456</v>
+        <v>0.8892553259721648</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9438713410500301</v>
+        <v>0.9439310997317205</v>
       </c>
     </row>
     <row r="27">
@@ -2408,19 +2408,19 @@
         <v>10539</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5402</v>
+        <v>5478</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>19208</v>
+        <v>19017</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02101260399703223</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01077139549348206</v>
+        <v>0.01092217585246564</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03829682500749772</v>
+        <v>0.03791638801696712</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>27</v>
@@ -2429,19 +2429,19 @@
         <v>28788</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>19061</v>
+        <v>19584</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>40676</v>
+        <v>40052</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0425328731797484</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02816151057777279</v>
+        <v>0.02893442832714287</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06009684955103264</v>
+        <v>0.05917425656642269</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>38</v>
@@ -2450,19 +2450,19 @@
         <v>39327</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>28959</v>
+        <v>28347</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>53977</v>
+        <v>54281</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03337335559822692</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02457509085211119</v>
+        <v>0.02405557572049447</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04580545266896185</v>
+        <v>0.04606379876173222</v>
       </c>
     </row>
     <row r="29">
@@ -2479,19 +2479,19 @@
         <v>20724</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>14146</v>
+        <v>14206</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>31249</v>
+        <v>31688</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04131893928285876</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02820489534544751</v>
+        <v>0.02832466231992412</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06230492004312164</v>
+        <v>0.06317903481471716</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>31</v>
@@ -2500,19 +2500,19 @@
         <v>33708</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>22231</v>
+        <v>23392</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>46250</v>
+        <v>46644</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04980181034342319</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03284483715013303</v>
+        <v>0.03456080512261933</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06833179557863503</v>
+        <v>0.06891471526137513</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>54</v>
@@ -2521,19 +2521,19 @@
         <v>54432</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>41601</v>
+        <v>40452</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>69397</v>
+        <v>69752</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04619130687056593</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03530283636896183</v>
+        <v>0.03432798355984098</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05889145208781194</v>
+        <v>0.05919267687802439</v>
       </c>
     </row>
     <row r="30">
@@ -2550,19 +2550,19 @@
         <v>470289</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>457538</v>
+        <v>458694</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>478486</v>
+        <v>479059</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.937668456720109</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9122471257873551</v>
+        <v>0.9145500705397057</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9540134803050614</v>
+        <v>0.9551545507596527</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>603</v>
@@ -2571,19 +2571,19 @@
         <v>614346</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>598490</v>
+        <v>598847</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>629860</v>
+        <v>628560</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9076653164768285</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8842392416862065</v>
+        <v>0.8847663762577932</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9305866179910566</v>
+        <v>0.9286653204450136</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1091</v>
@@ -2592,19 +2592,19 @@
         <v>1084635</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1065461</v>
+        <v>1065500</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1101710</v>
+        <v>1103135</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9204353375312071</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9041645818493417</v>
+        <v>0.9041971037049613</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9349258641298061</v>
+        <v>0.9361350807186947</v>
       </c>
     </row>
     <row r="31">
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6849</v>
+        <v>6453</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.046227250468801</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1559586866589668</v>
+        <v>0.1469219517009615</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5819</v>
+        <v>5530</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0434799700497733</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2301038571679725</v>
+        <v>0.2186913772487411</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -3027,19 +3027,19 @@
         <v>3130</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>971</v>
+        <v>955</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9459</v>
+        <v>8245</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04522335771321975</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01402860731584703</v>
+        <v>0.01380436975570812</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.136681639311211</v>
+        <v>0.1191323365031283</v>
       </c>
     </row>
     <row r="6">
@@ -3056,7 +3056,7 @@
         <v>41888</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>37069</v>
+        <v>37465</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>43918</v>
@@ -3065,7 +3065,7 @@
         <v>0.9537727495311991</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8440413133410332</v>
+        <v>0.8530780482990385</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -3077,7 +3077,7 @@
         <v>24189</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>19470</v>
+        <v>19759</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>25289</v>
@@ -3086,7 +3086,7 @@
         <v>0.9565200299502267</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7698961428320276</v>
+        <v>0.781308622751258</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -3098,19 +3098,19 @@
         <v>66077</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>59748</v>
+        <v>60962</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>68236</v>
+        <v>68252</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9547766422867803</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8633183606887889</v>
+        <v>0.8808676634968717</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.985971392684153</v>
+        <v>0.9861956302442919</v>
       </c>
     </row>
     <row r="7">
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11813</v>
+        <v>12062</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05625462087652878</v>
@@ -3214,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1948365076741626</v>
+        <v>0.1989412563847791</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5352</v>
+        <v>5389</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05796467111718722</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2831433272509084</v>
+        <v>0.2850968805133176</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -3244,19 +3244,19 @@
         <v>4506</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1108</v>
+        <v>1114</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12423</v>
+        <v>13826</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05666103493099177</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01393276269193875</v>
+        <v>0.01400780278692104</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1561977449464678</v>
+        <v>0.1738418411672508</v>
       </c>
     </row>
     <row r="9">
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4981</v>
+        <v>5725</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01825553143033202</v>
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08215061456890306</v>
+        <v>0.09441770874231588</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -3297,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5634</v>
+        <v>5812</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05888893275096339</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.298069881508649</v>
+        <v>0.3074551670108447</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>6859</v>
+        <v>7846</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0279125490925622</v>
@@ -3327,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08624648014028113</v>
+        <v>0.09865337045287224</v>
       </c>
     </row>
     <row r="10">
@@ -3344,19 +3344,19 @@
         <v>56112</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>48146</v>
+        <v>47239</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>59516</v>
+        <v>59518</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9254898476931392</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7940891632784521</v>
+        <v>0.7791285182552801</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9816287901937821</v>
+        <v>0.9816523056613325</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -3365,7 +3365,7 @@
         <v>16693</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11990</v>
+        <v>12078</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>18902</v>
@@ -3374,7 +3374,7 @@
         <v>0.8831463961318494</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6343359911177578</v>
+        <v>0.6389828669818506</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -3386,19 +3386,19 @@
         <v>72805</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>63926</v>
+        <v>64651</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>77288</v>
+        <v>77298</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.915426415976446</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8037860625057884</v>
+        <v>0.8128992033079393</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9718003248203784</v>
+        <v>0.9719252996825416</v>
       </c>
     </row>
     <row r="11">
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7066</v>
+        <v>6998</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01714853942732914</v>
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0595535468482504</v>
+        <v>0.05897505648134004</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>6985</v>
+        <v>6105</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0117432750960345</v>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04031594430711446</v>
+        <v>0.03523401322237322</v>
       </c>
     </row>
     <row r="13">
@@ -3553,19 +3553,19 @@
         <v>7903</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2391</v>
+        <v>3196</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19193</v>
+        <v>18913</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06660204027347334</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02015540619324546</v>
+        <v>0.02693356632950883</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1617534872649188</v>
+        <v>0.1593966848691202</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -3574,19 +3574,19 @@
         <v>6392</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2708</v>
+        <v>2851</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12822</v>
+        <v>12800</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.117031385583622</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04958034070033848</v>
+        <v>0.05219943402205954</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2347774181396386</v>
+        <v>0.2343631500050675</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -3595,19 +3595,19 @@
         <v>14294</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6759</v>
+        <v>7385</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25246</v>
+        <v>25551</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08249750137735475</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03900626883126006</v>
+        <v>0.04262420597817509</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1457054239645923</v>
+        <v>0.1474640810548358</v>
       </c>
     </row>
     <row r="14">
@@ -3624,19 +3624,19 @@
         <v>108716</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>98518</v>
+        <v>98469</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>114399</v>
+        <v>114370</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9162494202991975</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8303035615461978</v>
+        <v>0.829888606040014</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9641466766174167</v>
+        <v>0.9638998150451864</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>46</v>
@@ -3645,19 +3645,19 @@
         <v>48223</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>41793</v>
+        <v>41815</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>51907</v>
+        <v>51764</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.882968614416378</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7652225818603616</v>
+        <v>0.7656368499949324</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9504196592996667</v>
+        <v>0.9478005659779405</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>141</v>
@@ -3666,19 +3666,19 @@
         <v>156939</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>145389</v>
+        <v>145785</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>164601</v>
+        <v>164697</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9057592235266108</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8390974036662777</v>
+        <v>0.8413872556091602</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9499772163964011</v>
+        <v>0.9505352459979228</v>
       </c>
     </row>
     <row r="15">
@@ -3770,19 +3770,19 @@
         <v>11412</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5963</v>
+        <v>6195</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19461</v>
+        <v>18945</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04924073915185195</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02573059617949615</v>
+        <v>0.02673225130118532</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08397494995339629</v>
+        <v>0.08174648603341628</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5581</v>
+        <v>5514</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0185221270513865</v>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09287581170620135</v>
+        <v>0.09175834259025982</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -3812,19 +3812,19 @@
         <v>12525</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7056</v>
+        <v>6375</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20829</v>
+        <v>20277</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04291538706653899</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02417588481983714</v>
+        <v>0.02184344625391877</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07137002154567976</v>
+        <v>0.06947659026312404</v>
       </c>
     </row>
     <row r="17">
@@ -3841,19 +3841,19 @@
         <v>14976</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8534</v>
+        <v>8346</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24762</v>
+        <v>25257</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06462187873575055</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03682352398291003</v>
+        <v>0.03601124974779449</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1068459504323373</v>
+        <v>0.1089814228602451</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -3862,19 +3862,19 @@
         <v>7578</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3221</v>
+        <v>3210</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14044</v>
+        <v>14300</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1261078646548124</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05360474898320673</v>
+        <v>0.05341812560101542</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2336961242531075</v>
+        <v>0.2379535074961325</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>20</v>
@@ -3883,19 +3883,19 @@
         <v>22555</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14654</v>
+        <v>14321</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>34354</v>
+        <v>35090</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07728262356298082</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05021232206501909</v>
+        <v>0.04907156551162363</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1177107505666098</v>
+        <v>0.1202353582872918</v>
       </c>
     </row>
     <row r="18">
@@ -3912,19 +3912,19 @@
         <v>205365</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>193840</v>
+        <v>194800</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>213978</v>
+        <v>214623</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8861373821123975</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8364077569811532</v>
+        <v>0.8405517486977164</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9233021147977697</v>
+        <v>0.9260871280816109</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>49</v>
@@ -3933,19 +3933,19 @@
         <v>51403</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>45453</v>
+        <v>44628</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>56097</v>
+        <v>55996</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8553700082938011</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.756354282303029</v>
+        <v>0.7426290635828703</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9334703226368423</v>
+        <v>0.9317830693362644</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>240</v>
@@ -3954,19 +3954,19 @@
         <v>256768</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>243434</v>
+        <v>244493</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>266908</v>
+        <v>268400</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8798019893704802</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8341119430640704</v>
+        <v>0.8377401016119324</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9145459495424858</v>
+        <v>0.9196581254333084</v>
       </c>
     </row>
     <row r="19">
@@ -4058,19 +4058,19 @@
         <v>6178</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2096</v>
+        <v>2124</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12206</v>
+        <v>12369</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06016080467318272</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02040635479871903</v>
+        <v>0.02068247628669922</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1188550013739587</v>
+        <v>0.1204438570084874</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>17</v>
@@ -4079,19 +4079,19 @@
         <v>19324</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>11080</v>
+        <v>12255</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>29301</v>
+        <v>30586</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1025672183876091</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05880896224962084</v>
+        <v>0.06504808783639157</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1555241059914119</v>
+        <v>0.1623457081710643</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>23</v>
@@ -4100,19 +4100,19 @@
         <v>25502</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>16719</v>
+        <v>16314</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>37645</v>
+        <v>36427</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08760666652390409</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05743295641303598</v>
+        <v>0.05604491784170736</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.129320688849818</v>
+        <v>0.1251358460589177</v>
       </c>
     </row>
     <row r="21">
@@ -4129,19 +4129,19 @@
         <v>4427</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1162</v>
+        <v>1087</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11043</v>
+        <v>10177</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0431106086834282</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01131644393921408</v>
+        <v>0.01058801223710255</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.107533883055113</v>
+        <v>0.0991007059915559</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>21</v>
@@ -4150,19 +4150,19 @@
         <v>22518</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>14992</v>
+        <v>14837</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>33642</v>
+        <v>33782</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1195204356677078</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07957634931722883</v>
+        <v>0.07875221718044363</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1785673371870288</v>
+        <v>0.1793092289354611</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>25</v>
@@ -4171,19 +4171,19 @@
         <v>26945</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>18383</v>
+        <v>17583</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>38629</v>
+        <v>38761</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09256382511362657</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06315063045497517</v>
+        <v>0.06040336084124046</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1327030316015938</v>
+        <v>0.133155970426849</v>
       </c>
     </row>
     <row r="22">
@@ -4200,19 +4200,19 @@
         <v>92090</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>85010</v>
+        <v>84782</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>97389</v>
+        <v>97573</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8967285866433891</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8277819337934383</v>
+        <v>0.8255638656833325</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9483268569720049</v>
+        <v>0.9501157536230562</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>139</v>
@@ -4221,19 +4221,19 @@
         <v>146559</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>132414</v>
+        <v>132627</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>157562</v>
+        <v>156608</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7779123459446831</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7028352365780436</v>
+        <v>0.7039628240247262</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8363152165253226</v>
+        <v>0.8312500847425304</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>225</v>
@@ -4242,19 +4242,19 @@
         <v>238649</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>223511</v>
+        <v>225477</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>250327</v>
+        <v>252685</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8198295083624694</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7678255640754001</v>
+        <v>0.7745808115670767</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8599473097743817</v>
+        <v>0.868048334314221</v>
       </c>
     </row>
     <row r="23">
@@ -4359,19 +4359,19 @@
         <v>24434</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>15962</v>
+        <v>15827</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>37119</v>
+        <v>35992</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06190585651369075</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04044036147636298</v>
+        <v>0.04009917417722157</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09404268951087974</v>
+        <v>0.09118849464646892</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>22</v>
@@ -4380,19 +4380,19 @@
         <v>24435</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>15311</v>
+        <v>15971</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>35503</v>
+        <v>35559</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06159566172695421</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03859788569756276</v>
+        <v>0.04026156298727831</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.089496646692292</v>
+        <v>0.08963877280624528</v>
       </c>
     </row>
     <row r="25">
@@ -4422,19 +4422,19 @@
         <v>37033</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>26560</v>
+        <v>27320</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>50706</v>
+        <v>51441</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09382466876207571</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.067291064285483</v>
+        <v>0.06921746904545478</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1284648047377186</v>
+        <v>0.1303279786260318</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>34</v>
@@ -4443,19 +4443,19 @@
         <v>37033</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>27382</v>
+        <v>27040</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>50507</v>
+        <v>50647</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09335453677850736</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06902528449804346</v>
+        <v>0.0681631456053693</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1273204467208331</v>
+        <v>0.12767409743862</v>
       </c>
     </row>
     <row r="26">
@@ -4485,19 +4485,19 @@
         <v>333237</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>317853</v>
+        <v>316098</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>346766</v>
+        <v>345659</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8442694747242335</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8052933863285314</v>
+        <v>0.8008473568030259</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8785476757731838</v>
+        <v>0.8757434202654604</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>314</v>
@@ -4506,19 +4506,19 @@
         <v>335224</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>317324</v>
+        <v>317662</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>347833</v>
+        <v>348400</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8450498014945385</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7999249237792652</v>
+        <v>0.8007767660075874</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8768340852504009</v>
+        <v>0.8782626279367395</v>
       </c>
     </row>
     <row r="27">
@@ -4610,19 +4610,19 @@
         <v>23035</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>14769</v>
+        <v>15312</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>34512</v>
+        <v>36255</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04116127063713625</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02638978357467246</v>
+        <v>0.02736078393329342</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0616679999766488</v>
+        <v>0.06478248244304262</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>41</v>
@@ -4631,19 +4631,19 @@
         <v>45967</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>33891</v>
+        <v>33609</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>61924</v>
+        <v>60006</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06194961007205913</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04567532895054414</v>
+        <v>0.04529503564699542</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08345531752551587</v>
+        <v>0.08087040514734097</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>62</v>
@@ -4652,19 +4652,19 @@
         <v>69002</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>53345</v>
+        <v>52869</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>87433</v>
+        <v>87470</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05301172659989305</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04098248912180414</v>
+        <v>0.04061723808835526</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06717131904218553</v>
+        <v>0.06720011331919756</v>
       </c>
     </row>
     <row r="29">
@@ -4681,19 +4681,19 @@
         <v>30443</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>20592</v>
+        <v>18926</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>46028</v>
+        <v>43883</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05439804589150637</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03679510474407736</v>
+        <v>0.03381910162885333</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08224642058615753</v>
+        <v>0.07841265477823431</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>70</v>
@@ -4702,19 +4702,19 @@
         <v>75733</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>58622</v>
+        <v>59973</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>94315</v>
+        <v>95577</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1020659501805893</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07900534239433349</v>
+        <v>0.08082522764453552</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1271082690545253</v>
+        <v>0.1288097292273361</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>95</v>
@@ -4723,19 +4723,19 @@
         <v>106177</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>86670</v>
+        <v>87820</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>129583</v>
+        <v>127705</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08157127934687876</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0665848994438385</v>
+        <v>0.06746873696879568</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0995531181020935</v>
+        <v>0.09811100215652753</v>
       </c>
     </row>
     <row r="30">
@@ -4752,19 +4752,19 @@
         <v>506158</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>489468</v>
+        <v>488971</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>519842</v>
+        <v>520483</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9044406834713574</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8746174569150441</v>
+        <v>0.8737279878496313</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9288906047149047</v>
+        <v>0.9300363869034982</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>582</v>
@@ -4773,19 +4773,19 @@
         <v>620305</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>597635</v>
+        <v>597944</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>642078</v>
+        <v>640974</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8359844397473516</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8054326097626823</v>
+        <v>0.8058488325898798</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8653288376820313</v>
+        <v>0.8638404748436309</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1040</v>
@@ -4794,19 +4794,19 @@
         <v>1126463</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1097982</v>
+        <v>1101404</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1150035</v>
+        <v>1151487</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8654169940532281</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8435360905849463</v>
+        <v>0.8461646975967755</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8835261565286069</v>
+        <v>0.8846418055545401</v>
       </c>
     </row>
     <row r="31">
@@ -5190,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5241</v>
+        <v>4992</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02344556528525069</v>
@@ -5199,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07634684400249134</v>
+        <v>0.07272499238968702</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8086</v>
+        <v>8504</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07011929036884566</v>
@@ -5220,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2192071869202061</v>
+        <v>0.2305491183259108</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -5229,19 +5229,19 @@
         <v>4196</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1303</v>
+        <v>1337</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10451</v>
+        <v>10741</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03975967804239339</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01234386298585534</v>
+        <v>0.01266851990763448</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09903338092498569</v>
+        <v>0.1017765284058135</v>
       </c>
     </row>
     <row r="6">
@@ -5258,7 +5258,7 @@
         <v>67038</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>63406</v>
+        <v>63655</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>68647</v>
@@ -5267,7 +5267,7 @@
         <v>0.9765544347147493</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9236531559975086</v>
+        <v>0.927275007610313</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -5279,7 +5279,7 @@
         <v>34301</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>28802</v>
+        <v>28384</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>36888</v>
@@ -5288,7 +5288,7 @@
         <v>0.9298807096311543</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7807928130797939</v>
+        <v>0.7694508816740893</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -5300,19 +5300,19 @@
         <v>101339</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>95084</v>
+        <v>94794</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>104232</v>
+        <v>104198</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9602403219576066</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9009666190750143</v>
+        <v>0.8982234715941868</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9876561370141446</v>
+        <v>0.9873314800923656</v>
       </c>
     </row>
     <row r="7">
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3833</v>
+        <v>4656</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01709365262730424</v>
@@ -5416,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0718568759960312</v>
+        <v>0.08728094214505915</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -5441,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3888</v>
+        <v>5185</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01285514895598794</v>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05481197258294829</v>
+        <v>0.07309532540556307</v>
       </c>
     </row>
     <row r="9">
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6909</v>
+        <v>6237</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03595620048237003</v>
@@ -5479,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1295257073332683</v>
+        <v>0.116917939313611</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -5491,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6499</v>
+        <v>5970</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07658802445653275</v>
@@ -5500,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3695208916487439</v>
+        <v>0.3394487575003525</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -5509,19 +5509,19 @@
         <v>3265</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7932</v>
+        <v>9177</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04603117619655278</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01274365243574091</v>
+        <v>0.01277270784286552</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1118310332547003</v>
+        <v>0.1293738458299737</v>
       </c>
     </row>
     <row r="10">
@@ -5538,19 +5538,19 @@
         <v>50514</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>46150</v>
+        <v>45576</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52483</v>
+        <v>52453</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9469501468903258</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8651413709468579</v>
+        <v>0.8543771147018568</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9838592053994781</v>
+        <v>0.9832965145864822</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -5559,7 +5559,7 @@
         <v>16241</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11089</v>
+        <v>11618</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>17588</v>
@@ -5568,7 +5568,7 @@
         <v>0.9234119755434672</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6304791083512563</v>
+        <v>0.660551242499649</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -5580,19 +5580,19 @@
         <v>66755</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>61533</v>
+        <v>60829</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>69916</v>
+        <v>69934</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9411136748474593</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8674937417885911</v>
+        <v>0.8575675136807397</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9856752406176086</v>
+        <v>0.9859249008508549</v>
       </c>
     </row>
     <row r="11">
@@ -5687,7 +5687,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4522</v>
+        <v>4057</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.006590035005287153</v>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03759786237440014</v>
+        <v>0.03373729318416692</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -5721,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>4090</v>
+        <v>4061</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.004760767630258391</v>
@@ -5730,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02456856675893094</v>
+        <v>0.02439571706986807</v>
       </c>
     </row>
     <row r="13">
@@ -5747,19 +5747,19 @@
         <v>5248</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2040</v>
+        <v>2351</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11189</v>
+        <v>11405</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04363455290055294</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01696520341847584</v>
+        <v>0.0195529415566691</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09304133172585147</v>
+        <v>0.09483946203054587</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -5771,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7440</v>
+        <v>7435</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0531993062742515</v>
@@ -5780,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1609967859199781</v>
+        <v>0.1608947569375704</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -5789,19 +5789,19 @@
         <v>7706</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3689</v>
+        <v>3288</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14890</v>
+        <v>14569</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04628954506412502</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0221577535294575</v>
+        <v>0.0197493842791157</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0894468497174334</v>
+        <v>0.08751486565613197</v>
       </c>
     </row>
     <row r="14">
@@ -5818,19 +5818,19 @@
         <v>114221</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>108392</v>
+        <v>108052</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>117749</v>
+        <v>117479</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9497754120941599</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9013047311520374</v>
+        <v>0.898477649183804</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9791097108706276</v>
+        <v>0.9768668268006911</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>35</v>
@@ -5839,7 +5839,7 @@
         <v>43751</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>38769</v>
+        <v>38774</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>46209</v>
@@ -5848,7 +5848,7 @@
         <v>0.9468006937257485</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8390032140800221</v>
+        <v>0.8391052430624288</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -5860,19 +5860,19 @@
         <v>157972</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>151358</v>
+        <v>151598</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>162316</v>
+        <v>162498</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9489496873056166</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9092211634735882</v>
+        <v>0.9106607353067419</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9750446014144802</v>
+        <v>0.9761396700946028</v>
       </c>
     </row>
     <row r="15">
@@ -5964,19 +5964,19 @@
         <v>3439</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8654</v>
+        <v>8657</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01687172997675324</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004124671410459968</v>
+        <v>0.004150333860105194</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04244925496090703</v>
+        <v>0.04246502904780553</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -5988,7 +5988,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8397</v>
+        <v>8399</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02113340975051712</v>
@@ -5997,7 +5997,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08477976724436416</v>
+        <v>0.08479819959373348</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -6006,19 +6006,19 @@
         <v>5533</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1726</v>
+        <v>1833</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12605</v>
+        <v>13630</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01826525872083752</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005696749113490691</v>
+        <v>0.006052657277021077</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.041614218925516</v>
+        <v>0.04499887582690849</v>
       </c>
     </row>
     <row r="17">
@@ -6038,16 +6038,16 @@
         <v>2460</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11939</v>
+        <v>11711</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02905912756127811</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0120692668655848</v>
+        <v>0.01206728050081694</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0585661503068784</v>
+        <v>0.05744634358240412</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -6056,19 +6056,19 @@
         <v>9179</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3806</v>
+        <v>3742</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17606</v>
+        <v>17944</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09267860044391038</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03842883877361392</v>
+        <v>0.0377850402779177</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1777598840501805</v>
+        <v>0.1811690694755858</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>14</v>
@@ -6077,19 +6077,19 @@
         <v>15103</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8902</v>
+        <v>8298</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>25155</v>
+        <v>25461</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04986208997324246</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02938826300265018</v>
+        <v>0.02739650674617749</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08304739084796378</v>
+        <v>0.08405719941719542</v>
       </c>
     </row>
     <row r="18">
@@ -6106,19 +6106,19 @@
         <v>194493</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>187828</v>
+        <v>188171</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>198993</v>
+        <v>198961</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9540691424619686</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9213744212825511</v>
+        <v>0.9230567553178547</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.976144413930109</v>
+        <v>0.9759898220338441</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>76</v>
@@ -6127,19 +6127,19 @@
         <v>87773</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>78406</v>
+        <v>77764</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>93816</v>
+        <v>93660</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8861879898055725</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7916115478959772</v>
+        <v>0.7851305794566705</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9471961037629829</v>
+        <v>0.9456248796974279</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>283</v>
@@ -6148,19 +6148,19 @@
         <v>282266</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>271580</v>
+        <v>269765</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>289941</v>
+        <v>290201</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.93187265130592</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8965942634470738</v>
+        <v>0.8906017112832081</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9572114357317272</v>
+        <v>0.9580687010540572</v>
       </c>
     </row>
     <row r="19">
@@ -6252,19 +6252,19 @@
         <v>5199</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1711</v>
+        <v>1895</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10187</v>
+        <v>10951</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03580222260262985</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01178409374169847</v>
+        <v>0.01304782824198536</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07014807944344517</v>
+        <v>0.07540837996110818</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -6273,19 +6273,19 @@
         <v>5102</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1346</v>
+        <v>1378</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11848</v>
+        <v>12822</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03197737392786181</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.008435592987066065</v>
+        <v>0.00863657975005034</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07425598257100929</v>
+        <v>0.08036501030414805</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -6294,19 +6294,19 @@
         <v>10301</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5448</v>
+        <v>5115</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>18932</v>
+        <v>18213</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03379988146202706</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01787593502752941</v>
+        <v>0.01678404405423056</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06211756297757925</v>
+        <v>0.05975935456716366</v>
       </c>
     </row>
     <row r="21">
@@ -6323,19 +6323,19 @@
         <v>6253</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2724</v>
+        <v>2666</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11997</v>
+        <v>11592</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04305852212909341</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0187559793721482</v>
+        <v>0.01835535176979148</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08261060673677063</v>
+        <v>0.07982356333573862</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>15</v>
@@ -6344,19 +6344,19 @@
         <v>17534</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>10095</v>
+        <v>9857</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>27115</v>
+        <v>26444</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1098943868262202</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06327156932061001</v>
+        <v>0.06177768374698708</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1699451787727796</v>
+        <v>0.1657439388659516</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>22</v>
@@ -6365,19 +6365,19 @@
         <v>23787</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>15810</v>
+        <v>14925</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>34477</v>
+        <v>36209</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07804767148646899</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05187615374462606</v>
+        <v>0.048969819850667</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.113123372271177</v>
+        <v>0.1188078300201953</v>
       </c>
     </row>
     <row r="22">
@@ -6394,19 +6394,19 @@
         <v>133769</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>126863</v>
+        <v>126981</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>139052</v>
+        <v>138961</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9211392552682768</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8735870531877735</v>
+        <v>0.8743953701774887</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9575172813017094</v>
+        <v>0.9568928306910116</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>120</v>
@@ -6415,19 +6415,19 @@
         <v>136914</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>126261</v>
+        <v>127317</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>145572</v>
+        <v>146108</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.858128239245918</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7913562328471337</v>
+        <v>0.7979748853787175</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9123881651247521</v>
+        <v>0.9157477940739799</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>266</v>
@@ -6436,19 +6436,19 @@
         <v>270683</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>258097</v>
+        <v>258993</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>280407</v>
+        <v>281608</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.888152447051504</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8468541575413999</v>
+        <v>0.8497965278113468</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9200566500907502</v>
+        <v>0.9239995600944378</v>
       </c>
     </row>
     <row r="23">
@@ -6549,19 +6549,19 @@
         <v>21506</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>11550</v>
+        <v>12273</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>33545</v>
+        <v>32946</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05206135507181259</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02796145417199424</v>
+        <v>0.02971151049215854</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0812072760363144</v>
+        <v>0.07975516506027543</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>16</v>
@@ -6570,19 +6570,19 @@
         <v>21506</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>11550</v>
+        <v>12273</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>33545</v>
+        <v>32946</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05206135507181259</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02796145417199424</v>
+        <v>0.02971151049215854</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0812072760363144</v>
+        <v>0.07975516506027543</v>
       </c>
     </row>
     <row r="25">
@@ -6608,19 +6608,19 @@
         <v>15505</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9059</v>
+        <v>8824</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>25879</v>
+        <v>26234</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0375355979222771</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0219296611516083</v>
+        <v>0.02136176625875051</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06264803846840947</v>
+        <v>0.06350686621153877</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>13</v>
@@ -6629,19 +6629,19 @@
         <v>15505</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9059</v>
+        <v>8824</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>25879</v>
+        <v>26234</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0375355979222771</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0219296611516083</v>
+        <v>0.02136176625875051</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06264803846840947</v>
+        <v>0.06350686621153877</v>
       </c>
     </row>
     <row r="26">
@@ -6667,19 +6667,19 @@
         <v>376072</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>361918</v>
+        <v>361981</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>387664</v>
+        <v>388068</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9104030470059103</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8761397225099213</v>
+        <v>0.8762923214069377</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9384644597292928</v>
+        <v>0.9394440285382573</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>318</v>
@@ -6688,19 +6688,19 @@
         <v>376072</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>361918</v>
+        <v>361981</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>387664</v>
+        <v>388068</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9104030470059103</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8761397225099213</v>
+        <v>0.8762923214069377</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9384644597292928</v>
+        <v>0.9394440285382573</v>
       </c>
     </row>
     <row r="27">
@@ -6780,19 +6780,19 @@
         <v>10343</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5844</v>
+        <v>5197</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>17167</v>
+        <v>17404</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01749111428859949</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.00988215275980309</v>
+        <v>0.008788172878430414</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02903162397018215</v>
+        <v>0.0294325701623607</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>21</v>
@@ -6801,19 +6801,19 @@
         <v>28701</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>18195</v>
+        <v>17038</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>44502</v>
+        <v>42416</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03715970600339848</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02355767925988471</v>
+        <v>0.02205949595965092</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05761835979014985</v>
+        <v>0.05491743746070805</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>33</v>
@@ -6822,19 +6822,19 @@
         <v>39044</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>26328</v>
+        <v>25990</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>55869</v>
+        <v>54416</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02863095518571854</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01930650038181419</v>
+        <v>0.01905881918107855</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04096886282465509</v>
+        <v>0.03990344993270575</v>
       </c>
     </row>
     <row r="29">
@@ -6851,19 +6851,19 @@
         <v>20952</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>13035</v>
+        <v>13897</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>29756</v>
+        <v>31637</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03543193718609717</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02204377908696857</v>
+        <v>0.02350179559726227</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0503211395768435</v>
+        <v>0.05350230398983605</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>40</v>
@@ -6872,19 +6872,19 @@
         <v>48610</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>36448</v>
+        <v>35048</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>65954</v>
+        <v>64914</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06293704245607661</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04719006064789998</v>
+        <v>0.04537771271272715</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08539234669516946</v>
+        <v>0.08404597580713997</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>64</v>
@@ -6893,19 +6893,19 @@
         <v>69562</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>55264</v>
+        <v>52818</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>89280</v>
+        <v>86129</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0510102002874426</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04052554107704497</v>
+        <v>0.03873138551176745</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0654691855674501</v>
+        <v>0.06315888645760911</v>
       </c>
     </row>
     <row r="30">
@@ -6922,19 +6922,19 @@
         <v>560033</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>549389</v>
+        <v>548007</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>569236</v>
+        <v>568650</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9470769485253033</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9290758126488511</v>
+        <v>0.9267393479134529</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9626406254093858</v>
+        <v>0.9616484236384575</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>589</v>
@@ -6943,19 +6943,19 @@
         <v>695053</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>673087</v>
+        <v>675486</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>711727</v>
+        <v>713377</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.899903251540525</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8714636548179256</v>
+        <v>0.8745689132821749</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9214915498738501</v>
+        <v>0.923628578195868</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1180</v>
@@ -6964,19 +6964,19 @@
         <v>1255086</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1232980</v>
+        <v>1233252</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1275761</v>
+        <v>1274705</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9203588445268389</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9041484403315317</v>
+        <v>0.9043478631901084</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9355199596033087</v>
+        <v>0.9347452073497943</v>
       </c>
     </row>
     <row r="31">
@@ -7313,7 +7313,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3138</v>
+        <v>3046</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005085039488779474</v>
@@ -7322,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02606581157882127</v>
+        <v>0.02529472386797507</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -7347,7 +7347,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>3056</v>
+        <v>3107</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003140356705412812</v>
@@ -7356,7 +7356,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01567529937663969</v>
+        <v>0.01593737570033809</v>
       </c>
     </row>
     <row r="5">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4272</v>
+        <v>4297</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.009977974025774501</v>
@@ -7385,7 +7385,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03547981322473014</v>
+        <v>0.03568867745069647</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -7394,19 +7394,19 @@
         <v>2916</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1058</v>
+        <v>1102</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6636</v>
+        <v>6565</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03911607665602816</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01419569632044315</v>
+        <v>0.01477754165366927</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08900812632121795</v>
+        <v>0.08804996712529534</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -7415,19 +7415,19 @@
         <v>4118</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1664</v>
+        <v>1831</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8349</v>
+        <v>8687</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02112132240095612</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0085374912840365</v>
+        <v>0.009389275367739675</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0428255919012123</v>
+        <v>0.04455622527512682</v>
       </c>
     </row>
     <row r="6">
@@ -7444,19 +7444,19 @@
         <v>118587</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>115358</v>
+        <v>115431</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>119821</v>
+        <v>119819</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9849369864854461</v>
+        <v>0.984936986485446</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9581129698660736</v>
+        <v>0.9587183282090258</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9951814597063169</v>
+        <v>0.995162499215931</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>127</v>
@@ -7465,19 +7465,19 @@
         <v>71643</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>67923</v>
+        <v>67994</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>73501</v>
+        <v>73457</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9608839233439719</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9109918736787821</v>
+        <v>0.9119500328747043</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9858043036795568</v>
+        <v>0.9852224583463307</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>295</v>
@@ -7486,19 +7486,19 @@
         <v>190230</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>185483</v>
+        <v>185007</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>192620</v>
+        <v>192634</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9757383208936311</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.951390272255849</v>
+        <v>0.9489481119072793</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.98799758511298</v>
+        <v>0.9880678200773243</v>
       </c>
     </row>
     <row r="7">
@@ -7593,7 +7593,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3343</v>
+        <v>3197</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.005707528869803368</v>
@@ -7602,7 +7602,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03192522197005269</v>
+        <v>0.03053394305393502</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -7611,19 +7611,19 @@
         <v>1636</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4738</v>
+        <v>4548</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02953808262658445</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.007232889905219047</v>
+        <v>0.00717301602668601</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08554817244249024</v>
+        <v>0.08211878492622461</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -7632,19 +7632,19 @@
         <v>2234</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5570</v>
+        <v>5616</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01395144021041425</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.003687022210035877</v>
+        <v>0.003690737992442607</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03478799612743158</v>
+        <v>0.03507947165267885</v>
       </c>
     </row>
     <row r="9">
@@ -7661,19 +7661,19 @@
         <v>2695</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6923</v>
+        <v>6550</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02573758524762291</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.006634486114197716</v>
+        <v>0.00653081503998783</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06611462937009399</v>
+        <v>0.06254831636679672</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -7682,19 +7682,19 @@
         <v>2497</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6353</v>
+        <v>5817</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04507780605760074</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0120008868097513</v>
+        <v>0.01221453554242581</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1146987839294667</v>
+        <v>0.1050227086203345</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>8</v>
@@ -7703,19 +7703,19 @@
         <v>5192</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2527</v>
+        <v>2294</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>10548</v>
+        <v>9788</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0324281165417153</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01578091213814336</v>
+        <v>0.01433051959611404</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0658808527714478</v>
+        <v>0.0611377369315762</v>
       </c>
     </row>
     <row r="10">
@@ -7732,19 +7732,19 @@
         <v>101422</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>97034</v>
+        <v>97267</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>103490</v>
+        <v>103524</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9685548858825738</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9266524788488608</v>
+        <v>0.9288763286719942</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9882986793167544</v>
+        <v>0.9886299394242262</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>91</v>
@@ -7753,19 +7753,19 @@
         <v>51252</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46958</v>
+        <v>47341</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53641</v>
+        <v>53576</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9253841113158148</v>
+        <v>0.9253841113158149</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8478437170497504</v>
+        <v>0.8547661354682176</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.96851598910456</v>
+        <v>0.9673291125185274</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>233</v>
@@ -7774,19 +7774,19 @@
         <v>152675</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>147711</v>
+        <v>147365</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>156018</v>
+        <v>156416</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9536204432478702</v>
+        <v>0.9536204432478704</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9226193820542544</v>
+        <v>0.9204542746751353</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9745024206871865</v>
+        <v>0.9769913485428695</v>
       </c>
     </row>
     <row r="11">
@@ -7881,7 +7881,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2719</v>
+        <v>2880</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.004242500090562728</v>
@@ -7890,7 +7890,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02417768391695562</v>
+        <v>0.02560664992990772</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -7902,16 +7902,16 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1775</v>
+        <v>2366</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.007406622909723496</v>
+        <v>0.007406622909723495</v>
       </c>
       <c r="O12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03061462151719448</v>
+        <v>0.04081297294830627</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -7923,16 +7923,16 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>3186</v>
+        <v>3014</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.005318678169488503</v>
+        <v>0.005318678169488502</v>
       </c>
       <c r="V12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01869050807933132</v>
+        <v>0.0176820171020495</v>
       </c>
     </row>
     <row r="13">
@@ -7949,19 +7949,19 @@
         <v>4807</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1865</v>
+        <v>2124</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8885</v>
+        <v>9892</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04273637551818975</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01658284627228951</v>
+        <v>0.01888607426207015</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07899979014251871</v>
+        <v>0.08794812266318314</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -7970,19 +7970,19 @@
         <v>5701</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3074</v>
+        <v>2955</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9673</v>
+        <v>9619</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09834809439936282</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05302117261492546</v>
+        <v>0.050977056734336</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1668662839442471</v>
+        <v>0.1659237339741774</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -7991,19 +7991,19 @@
         <v>10508</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6784</v>
+        <v>6438</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16687</v>
+        <v>16061</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06165097403784354</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0398045573967691</v>
+        <v>0.03777386609317248</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09790277554980568</v>
+        <v>0.0942348804614332</v>
       </c>
     </row>
     <row r="14">
@@ -8020,19 +8020,19 @@
         <v>107187</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>102966</v>
+        <v>101818</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>110120</v>
+        <v>110000</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9530211243912474</v>
+        <v>0.9530211243912475</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.91548924571229</v>
+        <v>0.9052790642112207</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.979094041465887</v>
+        <v>0.9780255759533885</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>93</v>
@@ -8041,19 +8041,19 @@
         <v>51839</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>47616</v>
+        <v>47654</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>54571</v>
+        <v>54725</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8942452826909139</v>
+        <v>0.8942452826909137</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8213834494892308</v>
+        <v>0.8220528379597948</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9413638155345491</v>
+        <v>0.9440167209511552</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>249</v>
@@ -8062,19 +8062,19 @@
         <v>159027</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>152742</v>
+        <v>153388</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>163099</v>
+        <v>163501</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.933030347792668</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8961566516092142</v>
+        <v>0.8999458160907045</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9569233859403837</v>
+        <v>0.9592840980901094</v>
       </c>
     </row>
     <row r="15">
@@ -8166,19 +8166,19 @@
         <v>4364</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1809</v>
+        <v>1778</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8995</v>
+        <v>9568</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01678597857578571</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006958677964817831</v>
+        <v>0.006837411300609358</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03459411644768847</v>
+        <v>0.03679757780231421</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -8187,19 +8187,19 @@
         <v>4642</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2413</v>
+        <v>2178</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8637</v>
+        <v>8391</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.03546588277992566</v>
+        <v>0.03546588277992565</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01843429061263501</v>
+        <v>0.01664436430956598</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06598967443844771</v>
+        <v>0.06411178639528194</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -8208,19 +8208,19 @@
         <v>9006</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5485</v>
+        <v>5525</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15156</v>
+        <v>14310</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0230405532593587</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01403298950733995</v>
+        <v>0.01413443053113067</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03877349379221511</v>
+        <v>0.03660794519512676</v>
       </c>
     </row>
     <row r="17">
@@ -8237,19 +8237,19 @@
         <v>18617</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12341</v>
+        <v>12541</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27648</v>
+        <v>26135</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.07160038814084109</v>
+        <v>0.07160038814084112</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04746514087175108</v>
+        <v>0.04823253345164595</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1063363096372138</v>
+        <v>0.1005157193204752</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -8258,19 +8258,19 @@
         <v>7255</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4216</v>
+        <v>4047</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11494</v>
+        <v>11663</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05543010896437858</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03220901542365193</v>
+        <v>0.03092313745570345</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08781891074282223</v>
+        <v>0.0891105713241456</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>40</v>
@@ -8279,19 +8279,19 @@
         <v>25871</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>19292</v>
+        <v>18428</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>35567</v>
+        <v>34815</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.06618610883522266</v>
+        <v>0.06618610883522265</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04935388855777403</v>
+        <v>0.04714481611742389</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09099116462766889</v>
+        <v>0.08906592035010352</v>
       </c>
     </row>
     <row r="18">
@@ -8308,19 +8308,19 @@
         <v>237025</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>227836</v>
+        <v>228440</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>243880</v>
+        <v>243888</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9116136332833732</v>
+        <v>0.9116136332833734</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8762728242727627</v>
+        <v>0.8785948438800397</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.937977359100639</v>
+        <v>0.9380098175536429</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>235</v>
@@ -8329,19 +8329,19 @@
         <v>118984</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>114176</v>
+        <v>113704</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>122974</v>
+        <v>123191</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.9091040082556957</v>
+        <v>0.9091040082556956</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8723711673181735</v>
+        <v>0.868765796765447</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9395932198618396</v>
+        <v>0.9412481137488397</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>573</v>
@@ -8350,19 +8350,19 @@
         <v>356009</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>345546</v>
+        <v>346308</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>364108</v>
+        <v>364684</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9107733379054187</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8840081278852597</v>
+        <v>0.8859577833490814</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9314940883215161</v>
+        <v>0.9329687826753659</v>
       </c>
     </row>
     <row r="19">
@@ -8454,19 +8454,19 @@
         <v>1816</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>515</v>
+        <v>377</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4822</v>
+        <v>4258</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.01801454582579049</v>
+        <v>0.0180145458257905</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005110498633578596</v>
+        <v>0.003737697947998762</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04784006496510847</v>
+        <v>0.04224107754672506</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>26</v>
@@ -8475,19 +8475,19 @@
         <v>13698</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9205</v>
+        <v>9214</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>20011</v>
+        <v>19643</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.06219638197653513</v>
+        <v>0.06219638197653512</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04179599411938217</v>
+        <v>0.04183430766588164</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0908585691501082</v>
+        <v>0.08918782430744022</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>30</v>
@@ -8496,19 +8496,19 @@
         <v>15514</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10670</v>
+        <v>10721</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>22414</v>
+        <v>21792</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04832498226711834</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03323634282473863</v>
+        <v>0.03339513258359735</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06981681258291986</v>
+        <v>0.06788117421833922</v>
       </c>
     </row>
     <row r="21">
@@ -8525,19 +8525,19 @@
         <v>4950</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2092</v>
+        <v>2187</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9792</v>
+        <v>9975</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.04911501514828576</v>
+        <v>0.04911501514828577</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02075115281073314</v>
+        <v>0.02170154267568224</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09714920269778315</v>
+        <v>0.09896826026093265</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>43</v>
@@ -8546,19 +8546,19 @@
         <v>20109</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>14868</v>
+        <v>14711</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>27280</v>
+        <v>26843</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.09130121773819017</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06750516985679707</v>
+        <v>0.06679430640050441</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.12386084445681</v>
+        <v>0.1218804979146635</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>51</v>
@@ -8567,19 +8567,19 @@
         <v>25059</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>18762</v>
+        <v>19354</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>33339</v>
+        <v>33808</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.07805637032283136</v>
+        <v>0.07805637032283134</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05844140505271091</v>
+        <v>0.06028715818282303</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1038490321661323</v>
+        <v>0.1053093118305005</v>
       </c>
     </row>
     <row r="22">
@@ -8596,19 +8596,19 @@
         <v>94027</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>88957</v>
+        <v>88809</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>97445</v>
+        <v>97395</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9328704390259237</v>
+        <v>0.9328704390259238</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8825709785600255</v>
+        <v>0.8811033090932416</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.966784466784029</v>
+        <v>0.9662895871644772</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>374</v>
@@ -8617,19 +8617,19 @@
         <v>186437</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>177408</v>
+        <v>177759</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>193484</v>
+        <v>193564</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8465024002852746</v>
+        <v>0.8465024002852747</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8055045445343028</v>
+        <v>0.807100591452121</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8784961894724294</v>
+        <v>0.878861143258264</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>510</v>
@@ -8638,19 +8638,19 @@
         <v>280464</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>271175</v>
+        <v>270207</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>288397</v>
+        <v>288067</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8736186474100502</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.844684239626001</v>
+        <v>0.8416680462899763</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8983297777259028</v>
+        <v>0.8973015683773335</v>
       </c>
     </row>
     <row r="23">
@@ -8755,19 +8755,19 @@
         <v>20579</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>13829</v>
+        <v>14207</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>29039</v>
+        <v>29234</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.05962435288292203</v>
+        <v>0.05962435288292202</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04006732867172828</v>
+        <v>0.04116393680599392</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08413798678827972</v>
+        <v>0.08470372369451537</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>32</v>
@@ -8776,19 +8776,19 @@
         <v>20579</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>14571</v>
+        <v>14013</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>30161</v>
+        <v>28628</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05906370059240678</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04181982920687386</v>
+        <v>0.04022051235051449</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08656615208803102</v>
+        <v>0.08216754802080233</v>
       </c>
     </row>
     <row r="25">
@@ -8808,7 +8808,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2226</v>
+        <v>1932</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1575123810807746</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6794728609246499</v>
+        <v>0.5898691700626242</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>75</v>
@@ -8826,19 +8826,19 @@
         <v>42235</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>33613</v>
+        <v>33837</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>52760</v>
+        <v>52105</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.12237087843741</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09739140673847499</v>
+        <v>0.09803867703319796</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1528656860377523</v>
+        <v>0.1509694957518239</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>76</v>
@@ -8847,19 +8847,19 @@
         <v>42751</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>34466</v>
+        <v>34347</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>53202</v>
+        <v>52646</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1227013166391937</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09892182795473571</v>
+        <v>0.09858006068206081</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.152697992534565</v>
+        <v>0.1511029478235376</v>
       </c>
     </row>
     <row r="26">
@@ -8876,7 +8876,7 @@
         <v>2760</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>949</v>
+        <v>1219</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>3276</v>
@@ -8885,7 +8885,7 @@
         <v>0.8424876189192254</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2896300825894892</v>
+        <v>0.3721701769056234</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -8897,19 +8897,19 @@
         <v>282324</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>269704</v>
+        <v>270510</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>292318</v>
+        <v>292831</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8180047686796681</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7814415587689129</v>
+        <v>0.7837745632779175</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8469635614595653</v>
+        <v>0.8484486961075053</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>533</v>
@@ -8918,19 +8918,19 @@
         <v>285084</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>272859</v>
+        <v>272954</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>296102</v>
+        <v>295068</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8182349827683995</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7831472175746512</v>
+        <v>0.7834208774535941</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8498596652947196</v>
+        <v>0.8468920653243399</v>
       </c>
     </row>
     <row r="27">
@@ -9022,19 +9022,19 @@
         <v>7867</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4152</v>
+        <v>4314</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>13051</v>
+        <v>13549</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01121231881828521</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.005917943136219506</v>
+        <v>0.006147752090261229</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01859970315243425</v>
+        <v>0.01930934957380261</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>72</v>
@@ -9043,19 +9043,19 @@
         <v>40984</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>31660</v>
+        <v>32203</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>50978</v>
+        <v>52777</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.04635286864231926</v>
+        <v>0.04635286864231927</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03580791949960582</v>
+        <v>0.03642185509566639</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05765649646518067</v>
+        <v>0.05969080891359569</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>86</v>
@@ -9064,19 +9064,19 @@
         <v>48851</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>39423</v>
+        <v>38793</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>60663</v>
+        <v>60561</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03080473962416183</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02485944387992741</v>
+        <v>0.02446208362681663</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03825317639469155</v>
+        <v>0.03818868196437922</v>
       </c>
     </row>
     <row r="29">
@@ -9093,19 +9093,19 @@
         <v>32786</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>23868</v>
+        <v>24857</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>43181</v>
+        <v>43977</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04672629695067879</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03401611463550892</v>
+        <v>0.03542611103548218</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06154110019746868</v>
+        <v>0.06267569641750545</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>153</v>
@@ -9114,19 +9114,19 @@
         <v>80712</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>68418</v>
+        <v>68103</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>94176</v>
+        <v>93409</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.09128544680061314</v>
+        <v>0.09128544680061315</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0773803880254177</v>
+        <v>0.07702436982872521</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1065131907377638</v>
+        <v>0.1056458814991869</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>201</v>
@@ -9135,19 +9135,19 @@
         <v>113498</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>98497</v>
+        <v>99119</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>128786</v>
+        <v>131272</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0715700065392787</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06211037504229804</v>
+        <v>0.06250278484596131</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0812102810366034</v>
+        <v>0.08277795997436529</v>
       </c>
     </row>
     <row r="30">
@@ -9164,19 +9164,19 @@
         <v>661010</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>649406</v>
+        <v>648430</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>670603</v>
+        <v>669497</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9420613842310361</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9255246501817522</v>
+        <v>0.9241332883825832</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9557336696470854</v>
+        <v>0.9541576269077913</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1448</v>
@@ -9185,19 +9185,19 @@
         <v>762479</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>747582</v>
+        <v>746241</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>777668</v>
+        <v>778191</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8623616845570676</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8455131536711408</v>
+        <v>0.8439967358737123</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8795408288192988</v>
+        <v>0.880132455919912</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2393</v>
@@ -9206,19 +9206,19 @@
         <v>1423488</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1404916</v>
+        <v>1402375</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1441277</v>
+        <v>1440544</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8976252538365594</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8859140381027452</v>
+        <v>0.8843116988917392</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9088422490935431</v>
+        <v>0.9083800402334437</v>
       </c>
     </row>
     <row r="31">
